--- a/data/trans_orig/Cage-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D7A7B4-E3E7-45FA-92CF-CEA7F2CEC695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1752FD-685E-4755-9637-2652AC7A65DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A07CB4B3-82D0-42CD-B109-4A65C2C1F264}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E1040B1-4D53-44BE-8493-A8662D76FC6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="385">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1090 +95,1105 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,84%</t>
+    <t>1,88%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>Consumo riesgo</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>Beberdor social</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>Consumo riesgo</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>Beberdor social</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>97,33%</t>
+    <t>97,28%</t>
   </si>
   <si>
     <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115F41E3-AF44-463E-9203-C3F81DBAA97B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52080BA5-2883-4D31-A3C4-1157728FC509}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2076,10 +2091,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2094,7 +2109,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2106,10 +2121,10 @@
         <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2139,13 @@
         <v>729182</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>589</v>
@@ -2139,13 +2154,13 @@
         <v>622818</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7">
         <v>1286</v>
@@ -2154,13 +2169,13 @@
         <v>1352000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,7 +2231,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2234,7 +2249,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2249,7 +2264,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2264,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2294,13 @@
         <v>882</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2300,7 +2315,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -2309,13 +2324,13 @@
         <v>882</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,10 +2348,10 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2351,7 +2366,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2360,13 +2375,13 @@
         <v>3007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2396,13 @@
         <v>633814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>657</v>
@@ -2396,13 +2411,13 @@
         <v>688726</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>1265</v>
@@ -2411,13 +2426,13 @@
         <v>1322540</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,7 +2488,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2491,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2542,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2593,7 +2608,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2602,13 +2617,13 @@
         <v>1173</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2617,13 +2632,13 @@
         <v>1173</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,10 +2653,10 @@
         <v>519147</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>42</v>
@@ -2653,13 +2668,13 @@
         <v>514469</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
         <v>985</v>
@@ -2668,13 +2683,13 @@
         <v>1033616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,7 +2745,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2742,13 +2757,13 @@
         <v>3635</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2763,7 +2778,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2772,13 +2787,13 @@
         <v>3635</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2808,13 @@
         <v>2641</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2814,7 +2829,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2823,13 +2838,13 @@
         <v>2641</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2859,13 @@
         <v>908</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2859,13 +2874,13 @@
         <v>1030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2874,13 +2889,13 @@
         <v>1938</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,7 +2916,7 @@
         <v>111</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="H27" s="7">
         <v>395</v>
@@ -2910,13 +2925,13 @@
         <v>402956</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>780</v>
@@ -2925,13 +2940,13 @@
         <v>782482</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,7 +3002,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2999,13 +3014,13 @@
         <v>1007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3020,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3035,7 +3050,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3071,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -3107,7 +3122,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3122,7 +3137,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3155,10 +3170,10 @@
         <v>38</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H32" s="7">
         <v>661</v>
@@ -3167,10 +3182,10 @@
         <v>676842</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>42</v>
@@ -3185,10 +3200,10 @@
         <v>123</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3271,13 @@
         <v>5607</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3271,13 +3286,13 @@
         <v>1018</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -3292,7 +3307,7 @@
         <v>129</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3328,7 @@
         <v>130</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3322,13 +3337,13 @@
         <v>2006</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -3340,10 +3355,10 @@
         <v>47</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,10 +3373,10 @@
         <v>13194</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>131</v>
@@ -3376,10 +3391,10 @@
         <v>15</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -3388,13 +3403,13 @@
         <v>19459</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3424,13 @@
         <v>3250905</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H37" s="7">
         <v>3289</v>
@@ -3424,28 +3439,28 @@
         <v>3369909</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M37" s="7">
         <v>6478</v>
       </c>
       <c r="N37" s="7">
-        <v>6620813</v>
+        <v>6620814</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,7 +3502,7 @@
         <v>6511</v>
       </c>
       <c r="N38" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>42</v>
@@ -3501,7 +3516,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3523,7 +3538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02974FB1-3DD4-4D34-A103-7824B95E11E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AA880D-2545-479D-9216-5738C57320D5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3540,7 +3555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3653,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3668,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3683,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3713,13 @@
         <v>5404</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3719,7 +3734,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3728,13 +3743,13 @@
         <v>5404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3764,13 @@
         <v>8919</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -3764,13 +3779,13 @@
         <v>4123</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3779,13 +3794,13 @@
         <v>13041</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3815,13 @@
         <v>439823</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>417</v>
@@ -3815,13 +3830,13 @@
         <v>426107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>848</v>
@@ -3830,13 +3845,13 @@
         <v>865931</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3919,13 @@
         <v>1758</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3925,7 +3940,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3934,13 +3949,13 @@
         <v>1758</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3970,13 @@
         <v>6358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3976,7 +3991,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3985,13 +4000,13 @@
         <v>6358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4021,13 @@
         <v>6305</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4027,7 +4042,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4036,13 +4051,13 @@
         <v>6305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4072,13 @@
         <v>672666</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H12" s="7">
         <v>571</v>
@@ -4072,10 +4087,10 @@
         <v>610255</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>42</v>
@@ -4087,13 +4102,13 @@
         <v>1282921</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,7 +4164,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4161,13 +4176,13 @@
         <v>6070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4182,7 +4197,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4191,13 +4206,13 @@
         <v>6070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4227,13 @@
         <v>1976</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4233,7 +4248,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4242,13 +4257,13 @@
         <v>1976</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4278,13 @@
         <v>5106</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4284,7 +4299,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4293,13 +4308,13 @@
         <v>5106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4329,13 @@
         <v>668711</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>667</v>
@@ -4329,10 +4344,10 @@
         <v>710850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>42</v>
@@ -4344,13 +4359,13 @@
         <v>1379560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,7 +4421,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4418,13 +4433,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4439,7 +4454,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4454,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4484,13 @@
         <v>2115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4490,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4499,13 +4514,13 @@
         <v>2115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4535,13 @@
         <v>9491</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4541,7 +4556,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -4550,13 +4565,13 @@
         <v>9491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4586,13 @@
         <v>601957</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H22" s="7">
         <v>539</v>
@@ -4586,10 +4601,10 @@
         <v>616199</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>42</v>
@@ -4601,13 +4616,13 @@
         <v>1218156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,7 +4678,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4681,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4711,7 +4726,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4741,13 @@
         <v>3038</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4741,13 +4756,13 @@
         <v>1002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -4756,13 +4771,13 @@
         <v>4039</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4792,13 @@
         <v>983</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4807,13 +4822,13 @@
         <v>983</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4843,13 @@
         <v>425409</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H27" s="7">
         <v>405</v>
@@ -4843,13 +4858,13 @@
         <v>446798</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>795</v>
@@ -4858,13 +4873,13 @@
         <v>872207</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>209</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,7 +4935,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4953,7 +4968,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4983,13 +4998,13 @@
         <v>2294</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5004,7 +5019,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -5013,13 +5028,13 @@
         <v>2294</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5049,13 @@
         <v>4956</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5055,7 +5070,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5070,7 +5085,7 @@
         <v>130</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5100,13 @@
         <v>552387</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>694</v>
@@ -5100,10 +5115,10 @@
         <v>742975</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>42</v>
@@ -5115,13 +5130,13 @@
         <v>1295362</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,10 +5204,10 @@
         <v>8882</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>17</v>
@@ -5210,7 +5225,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -5222,10 +5237,10 @@
         <v>47</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5255,13 @@
         <v>21184</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -5255,13 +5270,13 @@
         <v>1002</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
         <v>20</v>
@@ -5273,10 +5288,10 @@
         <v>45</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5306,13 @@
         <v>35760</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -5306,13 +5321,13 @@
         <v>4123</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -5321,13 +5336,13 @@
         <v>39882</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5357,13 @@
         <v>3360953</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>3293</v>
@@ -5357,10 +5372,10 @@
         <v>3553185</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>226</v>
@@ -5372,13 +5387,13 @@
         <v>6914138</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,7 +5449,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5456,7 +5471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1714FA58-DEF5-4B03-89E3-ECBDED75FA2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247F671-C27C-4F19-A320-A5F96375F83A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5473,7 +5488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5586,7 +5601,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5616,7 +5631,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,7 +5652,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5661,13 +5676,13 @@
         <v>1350</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5697,13 @@
         <v>4336</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5697,10 +5712,10 @@
         <v>3010</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>233</v>
@@ -5712,13 +5727,13 @@
         <v>7345</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5748,13 @@
         <v>413777</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>401</v>
@@ -5748,13 +5763,13 @@
         <v>392745</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>789</v>
@@ -5763,13 +5778,13 @@
         <v>806523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,7 +5858,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5858,7 +5873,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5873,7 +5888,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5903,13 @@
         <v>4359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5909,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5921,10 +5936,10 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5954,13 @@
         <v>10130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5954,13 +5969,13 @@
         <v>3861</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -5969,13 +5984,13 @@
         <v>13991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +6005,13 @@
         <v>576007</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H12" s="7">
         <v>574</v>
@@ -6005,13 +6020,13 @@
         <v>558760</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>1127</v>
@@ -6020,13 +6035,13 @@
         <v>1134767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,7 +6097,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6100,7 +6115,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6115,7 +6130,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6145,13 +6160,13 @@
         <v>2805</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -6160,13 +6175,13 @@
         <v>941</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -6175,13 +6190,13 @@
         <v>3746</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6211,13 @@
         <v>5226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6211,13 +6226,13 @@
         <v>823</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6226,13 +6241,13 @@
         <v>6049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6262,13 @@
         <v>661065</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>663</v>
@@ -6262,13 +6277,13 @@
         <v>659622</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>1293</v>
@@ -6277,13 +6292,13 @@
         <v>1320687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6354,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6357,7 +6372,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6366,13 +6381,13 @@
         <v>1104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6381,13 +6396,13 @@
         <v>2152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,7 +6423,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6432,13 +6447,13 @@
         <v>2278</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6468,13 @@
         <v>6774</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -6468,13 +6483,13 @@
         <v>2224</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>242</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -6483,13 +6498,13 @@
         <v>8998</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6519,13 @@
         <v>635948</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>599</v>
@@ -6519,28 +6534,28 @@
         <v>645749</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>1173</v>
       </c>
       <c r="N22" s="7">
-        <v>1281697</v>
+        <v>1281698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,7 +6597,7 @@
         <v>1184</v>
       </c>
       <c r="N23" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>42</v>
@@ -6596,7 +6611,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6608,13 +6623,13 @@
         <v>1095</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6629,7 +6644,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6638,13 +6653,13 @@
         <v>1095</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6674,13 @@
         <v>1108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6680,7 +6695,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6689,13 +6704,13 @@
         <v>1108</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +6725,13 @@
         <v>6398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -6725,13 +6740,13 @@
         <v>2928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -6740,13 +6755,13 @@
         <v>9327</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>269</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6776,13 @@
         <v>469316</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H27" s="7">
         <v>431</v>
@@ -6776,13 +6791,13 @@
         <v>493921</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>848</v>
@@ -6791,13 +6806,13 @@
         <v>963237</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,7 +6868,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6871,7 +6886,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6886,7 +6901,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6922,7 +6937,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6937,7 +6952,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6946,7 +6961,7 @@
         <v>960</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
@@ -6973,7 +6988,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6982,13 +6997,13 @@
         <v>1074</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -7003,7 +7018,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +7033,13 @@
         <v>589456</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H32" s="7">
         <v>654</v>
@@ -7033,13 +7048,13 @@
         <v>776857</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M32" s="7">
         <v>1279</v>
@@ -7048,13 +7063,13 @@
         <v>1366313</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7137,13 @@
         <v>2143</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7137,13 +7152,13 @@
         <v>2026</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -7152,13 +7167,13 @@
         <v>4170</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,10 +7191,10 @@
         <v>13</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7188,13 +7203,13 @@
         <v>941</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
@@ -7203,13 +7218,13 @@
         <v>13802</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7239,13 @@
         <v>33776</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>282</v>
+        <v>119</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -7242,10 +7257,10 @@
         <v>14</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
@@ -7254,13 +7269,13 @@
         <v>47696</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,13 +7290,13 @@
         <v>3345570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="H37" s="7">
         <v>3322</v>
@@ -7290,13 +7305,13 @@
         <v>3527654</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>201</v>
+        <v>290</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="M37" s="7">
         <v>6509</v>
@@ -7305,13 +7320,13 @@
         <v>6873224</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>81</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,7 +7382,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -7389,7 +7404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F392CC-34D5-420E-993D-BC9B384EC158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A0C842-94C4-4008-9204-AA480F3A7247}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7406,7 +7421,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7519,7 +7534,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -7528,13 +7543,13 @@
         <v>4569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7543,13 +7558,13 @@
         <v>4569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,7 +7585,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7585,7 +7600,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7600,7 +7615,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,7 +7636,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>68</v>
+        <v>300</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7636,7 +7651,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7645,13 +7660,13 @@
         <v>160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7681,13 @@
         <v>161056</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -7681,13 +7696,13 @@
         <v>106307</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M7" s="7">
         <v>132</v>
@@ -7696,13 +7711,13 @@
         <v>267362</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,7 +7791,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7785,13 +7800,13 @@
         <v>938</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7800,13 +7815,13 @@
         <v>938</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,13 +7836,13 @@
         <v>1244</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7842,7 +7857,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -7851,13 +7866,13 @@
         <v>1244</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,13 +7887,13 @@
         <v>4684</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7893,7 +7908,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -7902,13 +7917,13 @@
         <v>4684</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>308</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,13 +7938,13 @@
         <v>221464</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>139</v>
@@ -7938,13 +7953,13 @@
         <v>149217</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7">
         <v>289</v>
@@ -7953,13 +7968,13 @@
         <v>370681</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8015,7 +8030,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8027,13 +8042,13 @@
         <v>1168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -8042,13 +8057,13 @@
         <v>1353</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8057,13 +8072,13 @@
         <v>2521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8078,13 +8093,13 @@
         <v>2548</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>241</v>
+        <v>322</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8099,7 +8114,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -8108,13 +8123,13 @@
         <v>3356</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8144,13 @@
         <v>160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8150,7 +8165,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -8165,7 +8180,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8195,13 @@
         <v>283564</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>225</v>
@@ -8195,13 +8210,13 @@
         <v>157185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
         <v>489</v>
@@ -8210,13 +8225,13 @@
         <v>440749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8272,7 +8287,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8284,13 +8299,13 @@
         <v>2244</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8305,7 +8320,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -8314,13 +8329,13 @@
         <v>2244</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,13 +8350,13 @@
         <v>2154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8350,13 +8365,13 @@
         <v>887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -8365,13 +8380,13 @@
         <v>3041</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,13 +8401,13 @@
         <v>2038</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -8401,13 +8416,13 @@
         <v>1493</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -8416,13 +8431,13 @@
         <v>3530</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>335</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8437,13 +8452,13 @@
         <v>343073</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -8452,13 +8467,13 @@
         <v>197304</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M22" s="7">
         <v>637</v>
@@ -8467,13 +8482,13 @@
         <v>540377</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8529,7 +8544,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8541,13 +8556,13 @@
         <v>5223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -8556,13 +8571,13 @@
         <v>2475</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -8571,13 +8586,13 @@
         <v>7698</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>347</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8592,13 +8607,13 @@
         <v>3512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8613,7 +8628,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -8622,13 +8637,13 @@
         <v>4191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>50</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8643,13 +8658,13 @@
         <v>3651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -8658,13 +8673,13 @@
         <v>696</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -8673,13 +8688,13 @@
         <v>4348</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8694,13 +8709,13 @@
         <v>265881</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H27" s="7">
         <v>234</v>
@@ -8709,13 +8724,13 @@
         <v>141113</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
       <c r="M27" s="7">
         <v>524</v>
@@ -8724,13 +8739,13 @@
         <v>406995</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8786,7 +8801,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8798,13 +8813,13 @@
         <v>3880</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -8813,13 +8828,13 @@
         <v>903</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -8828,13 +8843,13 @@
         <v>4783</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,13 +8864,13 @@
         <v>776</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8870,7 +8885,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -8885,7 +8900,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8900,13 +8915,13 @@
         <v>2097</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8921,7 +8936,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -8930,13 +8945,13 @@
         <v>2097</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8951,13 +8966,13 @@
         <v>300876</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>275</v>
+        <v>93</v>
       </c>
       <c r="H32" s="7">
         <v>200</v>
@@ -8966,13 +8981,13 @@
         <v>220180</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>323</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>370</v>
+        <v>62</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M32" s="7">
         <v>641</v>
@@ -8981,13 +8996,13 @@
         <v>521055</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>367</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9055,13 +9070,13 @@
         <v>12515</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
@@ -9070,13 +9085,13 @@
         <v>10238</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M34" s="7">
         <v>28</v>
@@ -9085,13 +9100,13 @@
         <v>22754</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9106,10 +9121,10 @@
         <v>10234</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>373</v>
@@ -9121,13 +9136,13 @@
         <v>2374</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -9136,13 +9151,13 @@
         <v>12608</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>25</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9157,13 +9172,13 @@
         <v>12789</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9172,13 +9187,13 @@
         <v>2189</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>126</v>
+        <v>332</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -9187,13 +9202,13 @@
         <v>14978</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9208,13 +9223,13 @@
         <v>1575913</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>377</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>60</v>
+        <v>379</v>
       </c>
       <c r="H37" s="7">
         <v>1174</v>
@@ -9223,13 +9238,13 @@
         <v>971305</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="M37" s="7">
         <v>2712</v>
@@ -9238,13 +9253,13 @@
         <v>2547219</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>310</v>
+        <v>383</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9300,7 +9315,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Cage-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1752FD-685E-4755-9637-2652AC7A65DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B88505-0AA1-4087-9232-614CB7EF1005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E1040B1-4D53-44BE-8493-A8662D76FC6A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C32F0FA1-D77A-436F-976D-BF210A9B079E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="386">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1053 +95,1068 @@
     <t>0,47%</t>
   </si>
   <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Consumo riesgo</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>Beberdor social</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>Consumo riesgo</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>Beberdor social</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
     <t>98,55%</t>
   </si>
   <si>
@@ -1157,15 +1172,6 @@
     <t>2,34%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
     <t>0,79%</t>
   </si>
   <si>
@@ -1191,9 +1197,6 @@
   </si>
   <si>
     <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52080BA5-2883-4D31-A3C4-1157728FC509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B044ACC-07C4-4EE8-9302-3EEC081B7A8D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2073,7 +2076,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2091,13 @@
         <v>5337</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2109,7 +2112,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2121,10 +2124,10 @@
         <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2142,13 @@
         <v>729182</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>589</v>
@@ -2154,13 +2157,13 @@
         <v>622818</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M12" s="7">
         <v>1286</v>
@@ -2169,13 +2172,13 @@
         <v>1352000</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,7 +2234,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2249,7 +2252,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2264,7 +2267,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2279,7 +2282,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2297,13 @@
         <v>882</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2315,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -2324,13 +2327,13 @@
         <v>882</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,10 +2351,10 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2366,7 +2369,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2375,13 +2378,13 @@
         <v>3007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2399,13 @@
         <v>633814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>657</v>
@@ -2411,13 +2414,13 @@
         <v>688726</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>1265</v>
@@ -2426,13 +2429,13 @@
         <v>1322540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2491,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2506,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2557,7 +2560,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2608,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2617,13 +2620,13 @@
         <v>1173</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2632,13 +2635,13 @@
         <v>1173</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,10 +2656,10 @@
         <v>519147</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>42</v>
@@ -2668,13 +2671,13 @@
         <v>514469</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
         <v>985</v>
@@ -2683,13 +2686,13 @@
         <v>1033616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,7 +2748,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2757,13 +2760,13 @@
         <v>3635</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2778,7 +2781,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2787,13 +2790,13 @@
         <v>3635</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2811,13 @@
         <v>2641</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2829,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2838,13 +2841,13 @@
         <v>2641</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2862,13 @@
         <v>908</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2874,13 +2877,13 @@
         <v>1030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2889,13 +2892,13 @@
         <v>1938</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2913,13 @@
         <v>379527</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H27" s="7">
         <v>395</v>
@@ -2925,13 +2928,13 @@
         <v>402956</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>780</v>
@@ -2940,13 +2943,13 @@
         <v>782482</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,7 +3005,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3014,13 +3017,13 @@
         <v>1007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3035,7 +3038,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3050,7 +3053,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3086,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -3122,7 +3125,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3137,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3170,10 +3173,10 @@
         <v>38</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H32" s="7">
         <v>661</v>
@@ -3182,10 +3185,10 @@
         <v>676842</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>42</v>
@@ -3197,13 +3200,13 @@
         <v>1178301</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3274,13 @@
         <v>5607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3286,13 +3289,13 @@
         <v>1018</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -3301,10 +3304,10 @@
         <v>6625</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>15</v>
@@ -3325,10 +3328,10 @@
         <v>19</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3337,13 +3340,13 @@
         <v>2006</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -3355,10 +3358,10 @@
         <v>47</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3376,13 @@
         <v>13194</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3391,10 +3394,10 @@
         <v>15</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -3403,13 +3406,13 @@
         <v>19459</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,16 +3424,16 @@
         <v>3189</v>
       </c>
       <c r="D37" s="7">
-        <v>3250905</v>
+        <v>3250904</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H37" s="7">
         <v>3289</v>
@@ -3439,13 +3442,13 @@
         <v>3369909</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="M37" s="7">
         <v>6478</v>
@@ -3454,13 +3457,13 @@
         <v>6620814</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,7 +3475,7 @@
         <v>3214</v>
       </c>
       <c r="D38" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>42</v>
@@ -3516,7 +3519,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3538,7 +3541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AA880D-2545-479D-9216-5738C57320D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B51A850-6F6B-428D-9DCE-30982416AC61}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3555,7 +3558,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3668,7 +3671,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3683,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3698,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3716,13 @@
         <v>5404</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3734,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3743,13 +3746,13 @@
         <v>5404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3767,13 @@
         <v>8919</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -3779,13 +3782,13 @@
         <v>4123</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3794,13 +3797,13 @@
         <v>13041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3818,13 @@
         <v>439823</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>417</v>
@@ -3830,13 +3833,13 @@
         <v>426107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="M7" s="7">
         <v>848</v>
@@ -3845,13 +3848,13 @@
         <v>865931</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3922,13 @@
         <v>1758</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3940,7 +3943,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3949,13 +3952,13 @@
         <v>1758</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3973,13 @@
         <v>6358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3991,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4000,13 +4003,13 @@
         <v>6358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4024,13 @@
         <v>6305</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4042,7 +4045,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4051,13 +4054,13 @@
         <v>6305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4075,13 @@
         <v>672666</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H12" s="7">
         <v>571</v>
@@ -4087,10 +4090,10 @@
         <v>610255</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>42</v>
@@ -4102,13 +4105,13 @@
         <v>1282921</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,7 +4167,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4179,10 +4182,10 @@
         <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4197,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4206,13 +4209,13 @@
         <v>6070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,13 +4230,13 @@
         <v>1976</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4248,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4257,13 +4260,13 @@
         <v>1976</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4281,13 @@
         <v>5106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4299,7 +4302,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4308,13 +4311,13 @@
         <v>5106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4332,13 @@
         <v>668711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="H17" s="7">
         <v>667</v>
@@ -4344,10 +4347,10 @@
         <v>710850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>42</v>
@@ -4359,13 +4362,13 @@
         <v>1379560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,7 +4424,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4433,13 +4436,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4454,7 +4457,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4469,7 +4472,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4487,13 @@
         <v>2115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4505,7 +4508,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4514,13 +4517,13 @@
         <v>2115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4538,13 @@
         <v>9491</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4556,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -4565,13 +4568,13 @@
         <v>9491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4589,13 @@
         <v>601957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H22" s="7">
         <v>539</v>
@@ -4601,10 +4604,10 @@
         <v>616199</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>42</v>
@@ -4616,13 +4619,13 @@
         <v>1218156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,7 +4681,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4696,7 +4699,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4726,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4744,13 @@
         <v>3038</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4756,13 +4759,13 @@
         <v>1002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -4771,13 +4774,13 @@
         <v>4039</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4795,13 @@
         <v>983</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4822,13 +4825,13 @@
         <v>983</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4846,13 @@
         <v>425409</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H27" s="7">
         <v>405</v>
@@ -4858,13 +4861,13 @@
         <v>446798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>795</v>
@@ -4873,13 +4876,13 @@
         <v>872207</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4938,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4968,7 +4971,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4998,13 +5001,13 @@
         <v>2294</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5019,7 +5022,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -5028,13 +5031,13 @@
         <v>2294</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,10 +5055,10 @@
         <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5070,7 +5073,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5082,10 +5085,10 @@
         <v>13</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5103,13 @@
         <v>552387</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H32" s="7">
         <v>694</v>
@@ -5115,10 +5118,10 @@
         <v>742975</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>42</v>
@@ -5130,13 +5133,13 @@
         <v>1295362</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,13 +5207,13 @@
         <v>8882</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5225,7 +5228,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -5237,10 +5240,10 @@
         <v>47</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5258,13 @@
         <v>21184</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -5270,13 +5273,13 @@
         <v>1002</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="M35" s="7">
         <v>20</v>
@@ -5306,13 +5309,13 @@
         <v>35760</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -5321,13 +5324,13 @@
         <v>4123</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -5336,13 +5339,13 @@
         <v>39882</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5360,13 @@
         <v>3360953</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H37" s="7">
         <v>3293</v>
@@ -5372,13 +5375,13 @@
         <v>3553185</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M37" s="7">
         <v>6441</v>
@@ -5387,13 +5390,13 @@
         <v>6914138</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,7 +5452,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5471,7 +5474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247F671-C27C-4F19-A320-A5F96375F83A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A83CEF6-449F-42EF-B269-98A25F259CE0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5488,7 +5491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5601,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5631,7 +5634,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5655,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5676,13 +5679,13 @@
         <v>1350</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5700,13 @@
         <v>4336</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5712,13 +5715,13 @@
         <v>3010</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -5727,13 +5730,13 @@
         <v>7345</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5751,13 @@
         <v>413777</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>401</v>
@@ -5763,13 +5766,13 @@
         <v>392745</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>789</v>
@@ -5778,13 +5781,13 @@
         <v>806523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,7 +5861,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5873,7 +5876,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5882,13 +5885,13 @@
         <v>922</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,10 +5909,10 @@
         <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5924,7 +5927,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5939,7 +5942,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +5957,13 @@
         <v>10130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5969,13 +5972,13 @@
         <v>3861</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -5984,13 +5987,13 @@
         <v>13991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6008,13 @@
         <v>576007</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H12" s="7">
         <v>574</v>
@@ -6020,13 +6023,13 @@
         <v>558760</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>1127</v>
@@ -6035,13 +6038,13 @@
         <v>1134767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>115</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,7 +6100,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6115,7 +6118,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6130,7 +6133,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6160,13 +6163,13 @@
         <v>2805</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -6175,13 +6178,13 @@
         <v>941</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -6190,13 +6193,13 @@
         <v>3746</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6214,13 @@
         <v>5226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6226,13 +6229,13 @@
         <v>823</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6241,13 +6244,13 @@
         <v>6049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6265,13 @@
         <v>661065</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>663</v>
@@ -6277,13 +6280,13 @@
         <v>659622</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>1293</v>
@@ -6292,13 +6295,13 @@
         <v>1320687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6357,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6372,7 +6375,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6381,13 +6384,13 @@
         <v>1104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6396,13 +6399,13 @@
         <v>2152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,7 +6426,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6447,13 +6450,13 @@
         <v>2278</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6471,13 @@
         <v>6774</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -6483,13 +6486,13 @@
         <v>2224</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -6498,13 +6501,13 @@
         <v>8998</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,7 +6522,7 @@
         <v>635948</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>266</v>
@@ -6534,10 +6537,10 @@
         <v>645749</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>269</v>
@@ -6546,16 +6549,16 @@
         <v>1173</v>
       </c>
       <c r="N22" s="7">
-        <v>1281698</v>
+        <v>1281697</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,7 +6600,7 @@
         <v>1184</v>
       </c>
       <c r="N23" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>42</v>
@@ -6611,7 +6614,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6623,13 +6626,13 @@
         <v>1095</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6644,7 +6647,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6653,7 +6656,7 @@
         <v>1095</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
@@ -6674,7 +6677,7 @@
         <v>1108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
@@ -6695,7 +6698,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6704,13 +6707,13 @@
         <v>1108</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,13 +6728,13 @@
         <v>6398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -6740,13 +6743,13 @@
         <v>2928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -6755,13 +6758,13 @@
         <v>9327</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6779,13 @@
         <v>469316</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>431</v>
@@ -6791,13 +6794,13 @@
         <v>493921</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>848</v>
@@ -6806,13 +6809,13 @@
         <v>963237</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>280</v>
+        <v>161</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,7 +6871,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6886,7 +6889,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6901,7 +6904,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6937,7 +6940,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6952,7 +6955,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6961,13 +6964,13 @@
         <v>960</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,7 +6991,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6997,13 +7000,13 @@
         <v>1074</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -7018,7 +7021,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7036,13 @@
         <v>589456</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>284</v>
+        <v>123</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H32" s="7">
         <v>654</v>
@@ -7048,13 +7051,13 @@
         <v>776857</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>83</v>
+        <v>285</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M32" s="7">
         <v>1279</v>
@@ -7063,13 +7066,13 @@
         <v>1366313</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7140,13 @@
         <v>2143</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7152,13 +7155,13 @@
         <v>2026</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -7167,10 +7170,10 @@
         <v>4170</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>46</v>
@@ -7191,10 +7194,10 @@
         <v>13</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7203,13 +7206,13 @@
         <v>941</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
@@ -7218,13 +7221,13 @@
         <v>13802</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,13 +7242,13 @@
         <v>33776</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -7257,10 +7260,10 @@
         <v>14</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
@@ -7269,13 +7272,13 @@
         <v>47696</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>100</v>
+        <v>289</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>282</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,13 +7293,13 @@
         <v>3345570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="H37" s="7">
         <v>3322</v>
@@ -7305,13 +7308,13 @@
         <v>3527654</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="M37" s="7">
         <v>6509</v>
@@ -7320,13 +7323,13 @@
         <v>6873224</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>292</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,7 +7385,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -7404,7 +7407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A0C842-94C4-4008-9204-AA480F3A7247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAD80-6F12-4C73-819F-0FC13A5F23B2}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7421,7 +7424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7534,7 +7537,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -7543,13 +7546,13 @@
         <v>4569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7558,13 +7561,13 @@
         <v>4569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,7 +7588,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7600,7 +7603,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7615,7 +7618,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7633,13 @@
         <v>160</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7651,7 +7654,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7660,13 +7663,13 @@
         <v>160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7684,13 @@
         <v>161056</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -7696,13 +7699,13 @@
         <v>106307</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M7" s="7">
         <v>132</v>
@@ -7711,13 +7714,13 @@
         <v>267362</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,7 +7794,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7800,13 +7803,13 @@
         <v>938</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7815,13 +7818,13 @@
         <v>938</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,13 +7839,13 @@
         <v>1244</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7866,13 +7869,13 @@
         <v>1244</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,13 +7890,13 @@
         <v>4684</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7917,13 +7920,13 @@
         <v>4684</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7938,13 +7941,13 @@
         <v>221464</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H12" s="7">
         <v>139</v>
@@ -7953,13 +7956,13 @@
         <v>149217</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>289</v>
@@ -7968,13 +7971,13 @@
         <v>370681</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>196</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8030,7 +8033,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8042,13 +8045,13 @@
         <v>1168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -8057,13 +8060,13 @@
         <v>1353</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8072,13 +8075,13 @@
         <v>2521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,10 +8099,10 @@
         <v>163</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8114,7 +8117,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -8123,13 +8126,13 @@
         <v>3356</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8144,13 +8147,13 @@
         <v>160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8165,7 +8168,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -8174,13 +8177,13 @@
         <v>160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8195,13 +8198,13 @@
         <v>283564</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>225</v>
@@ -8210,13 +8213,13 @@
         <v>157185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>489</v>
@@ -8225,13 +8228,13 @@
         <v>440749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8287,7 +8290,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8299,13 +8302,13 @@
         <v>2244</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>334</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8320,7 +8323,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>48</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -8329,13 +8332,13 @@
         <v>2244</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8350,13 +8353,13 @@
         <v>2154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8365,13 +8368,13 @@
         <v>887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -8380,13 +8383,13 @@
         <v>3041</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8401,13 +8404,13 @@
         <v>2038</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>334</v>
+        <v>228</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -8416,13 +8419,13 @@
         <v>1493</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -8431,13 +8434,13 @@
         <v>3530</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8452,13 +8455,13 @@
         <v>343073</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>338</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -8467,13 +8470,13 @@
         <v>197304</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>637</v>
@@ -8482,13 +8485,13 @@
         <v>540377</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8544,7 +8547,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8556,13 +8559,13 @@
         <v>5223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>18</v>
+        <v>346</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -8571,13 +8574,13 @@
         <v>2475</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -8586,13 +8589,13 @@
         <v>7698</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8607,13 +8610,13 @@
         <v>3512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8628,7 +8631,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -8637,13 +8640,13 @@
         <v>4191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8658,13 +8661,13 @@
         <v>3651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>73</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -8673,13 +8676,13 @@
         <v>696</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -8688,13 +8691,13 @@
         <v>4348</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8709,13 +8712,13 @@
         <v>265881</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H27" s="7">
         <v>234</v>
@@ -8724,13 +8727,13 @@
         <v>141113</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>357</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>524</v>
@@ -8739,13 +8742,13 @@
         <v>406995</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8801,7 +8804,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8813,13 +8816,13 @@
         <v>3880</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -8828,13 +8831,13 @@
         <v>903</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -8843,13 +8846,13 @@
         <v>4783</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>18</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8864,13 +8867,13 @@
         <v>776</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8885,7 +8888,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>363</v>
+        <v>254</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -8900,7 +8903,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8915,13 +8918,13 @@
         <v>2097</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8936,7 +8939,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>363</v>
+        <v>254</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -8945,13 +8948,13 @@
         <v>2097</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>365</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8966,13 +8969,13 @@
         <v>300876</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>111</v>
+        <v>370</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="H32" s="7">
         <v>200</v>
@@ -8981,13 +8984,13 @@
         <v>220180</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>62</v>
+        <v>371</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M32" s="7">
         <v>641</v>
@@ -8996,13 +8999,13 @@
         <v>521055</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9070,13 +9073,13 @@
         <v>12515</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
@@ -9085,13 +9088,13 @@
         <v>10238</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M34" s="7">
         <v>28</v>
@@ -9100,10 +9103,10 @@
         <v>22754</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>372</v>
+        <v>199</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>309</v>
@@ -9121,13 +9124,13 @@
         <v>10234</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>373</v>
+        <v>111</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -9136,13 +9139,13 @@
         <v>2374</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>131</v>
+        <v>273</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -9151,13 +9154,13 @@
         <v>12608</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>374</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9172,13 +9175,13 @@
         <v>12789</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9187,13 +9190,13 @@
         <v>2189</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -9202,13 +9205,13 @@
         <v>14978</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>241</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9223,13 +9226,13 @@
         <v>1575913</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H37" s="7">
         <v>1174</v>
@@ -9238,13 +9241,13 @@
         <v>971305</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M37" s="7">
         <v>2712</v>
@@ -9253,13 +9256,13 @@
         <v>2547219</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>384</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9315,7 +9318,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Cage-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B88505-0AA1-4087-9232-614CB7EF1005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7327535-9EC3-46E9-95AA-BD3F2C83B6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C32F0FA1-D77A-436F-976D-BF210A9B079E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{233C72B4-D4E0-427C-8573-BF3C32386F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="380">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1108 +95,1090 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Consumo riesgo</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>Beberdor social</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>Consumo riesgo</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>Beberdor social</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
     <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B044ACC-07C4-4EE8-9302-3EEC081B7A8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C38A031-26A7-4589-9D85-5A9704671AA8}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2076,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,10 +2073,10 @@
         <v>5337</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>53</v>
@@ -2267,7 +2249,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2282,7 +2264,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2279,13 @@
         <v>882</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2318,7 +2300,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -2327,13 +2309,13 @@
         <v>882</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,10 +2333,10 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2369,7 +2351,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2378,13 +2360,13 @@
         <v>3007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2381,13 @@
         <v>633814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>657</v>
@@ -2414,10 +2396,10 @@
         <v>688726</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>61</v>
@@ -2429,13 +2411,13 @@
         <v>1322540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2473,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2509,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2560,7 +2542,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2611,7 +2593,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2620,13 +2602,13 @@
         <v>1173</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2635,13 +2617,13 @@
         <v>1173</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2641,7 @@
         <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>42</v>
@@ -2671,10 +2653,10 @@
         <v>514469</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>61</v>
@@ -2686,10 +2668,10 @@
         <v>1033616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>61</v>
@@ -2748,7 +2730,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2760,13 +2742,13 @@
         <v>3635</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2781,7 +2763,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2790,13 +2772,13 @@
         <v>3635</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2793,13 @@
         <v>2641</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2832,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2841,13 +2823,13 @@
         <v>2641</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2844,13 @@
         <v>908</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2877,13 +2859,13 @@
         <v>1030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2892,13 +2874,13 @@
         <v>1938</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,13 +2895,13 @@
         <v>379527</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H27" s="7">
         <v>395</v>
@@ -2928,10 +2910,10 @@
         <v>402956</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>61</v>
@@ -2943,13 +2925,13 @@
         <v>782482</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,7 +2987,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3017,13 +2999,13 @@
         <v>1007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3038,7 +3020,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3053,7 +3035,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3089,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -3125,7 +3107,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3140,7 +3122,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3173,7 +3155,7 @@
         <v>38</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>61</v>
@@ -3188,7 +3170,7 @@
         <v>61</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>42</v>
@@ -3200,10 +3182,10 @@
         <v>1178301</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>61</v>
@@ -3274,10 +3256,10 @@
         <v>5607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>21</v>
@@ -3289,13 +3271,13 @@
         <v>1018</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -3304,13 +3286,13 @@
         <v>6625</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,10 +3310,10 @@
         <v>19</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3340,13 +3322,13 @@
         <v>2006</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -3358,10 +3340,10 @@
         <v>47</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3358,13 @@
         <v>13194</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3394,10 +3376,10 @@
         <v>15</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -3406,13 +3388,13 @@
         <v>19459</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,16 +3406,16 @@
         <v>3189</v>
       </c>
       <c r="D37" s="7">
-        <v>3250904</v>
+        <v>3250905</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H37" s="7">
         <v>3289</v>
@@ -3442,28 +3424,28 @@
         <v>3369909</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M37" s="7">
         <v>6478</v>
       </c>
       <c r="N37" s="7">
-        <v>6620814</v>
+        <v>6620813</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,7 +3457,7 @@
         <v>3214</v>
       </c>
       <c r="D38" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>42</v>
@@ -3505,7 +3487,7 @@
         <v>6511</v>
       </c>
       <c r="N38" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>42</v>
@@ -3519,7 +3501,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3541,7 +3523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B51A850-6F6B-428D-9DCE-30982416AC61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85CB75-0B94-4507-9C72-F443443AEBF6}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3558,7 +3540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3671,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3686,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3701,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3698,13 @@
         <v>5404</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3737,7 +3719,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3746,13 +3728,13 @@
         <v>5404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3749,13 @@
         <v>8919</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -3782,13 +3764,13 @@
         <v>4123</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3797,13 +3779,13 @@
         <v>13041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3800,13 @@
         <v>439823</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>417</v>
@@ -3833,13 +3815,13 @@
         <v>426107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>848</v>
@@ -3848,13 +3830,13 @@
         <v>865931</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3904,13 @@
         <v>1758</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3943,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3952,13 +3934,13 @@
         <v>1758</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3955,13 @@
         <v>6358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3994,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4003,13 +3985,13 @@
         <v>6358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4006,13 @@
         <v>6305</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4045,7 +4027,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4054,13 +4036,13 @@
         <v>6305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4057,13 @@
         <v>672666</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H12" s="7">
         <v>571</v>
@@ -4105,13 +4087,13 @@
         <v>1282921</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4161,13 @@
         <v>6070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4200,7 +4182,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4209,13 +4191,13 @@
         <v>6070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4212,13 @@
         <v>1976</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4251,7 +4233,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4260,13 +4242,13 @@
         <v>1976</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4263,13 @@
         <v>5106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4302,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4311,13 +4293,13 @@
         <v>5106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4314,13 @@
         <v>668711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>667</v>
@@ -4350,7 +4332,7 @@
         <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>42</v>
@@ -4362,13 +4344,13 @@
         <v>1379560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,7 +4406,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4436,13 +4418,13 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4457,7 +4439,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4472,7 +4454,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4469,13 @@
         <v>2115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4508,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4517,13 +4499,13 @@
         <v>2115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4520,13 @@
         <v>9491</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4559,7 +4541,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -4568,13 +4550,13 @@
         <v>9491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4571,13 @@
         <v>601957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="H22" s="7">
         <v>539</v>
@@ -4607,7 +4589,7 @@
         <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>42</v>
@@ -4619,13 +4601,13 @@
         <v>1218156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,7 +4663,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4699,7 +4681,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4729,7 +4711,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4726,13 @@
         <v>3038</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4759,13 +4741,13 @@
         <v>1002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -4774,13 +4756,13 @@
         <v>4039</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4777,13 @@
         <v>983</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4825,13 +4807,13 @@
         <v>983</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4828,13 @@
         <v>425409</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="H27" s="7">
         <v>405</v>
@@ -4861,10 +4843,10 @@
         <v>446798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>61</v>
@@ -4876,13 +4858,13 @@
         <v>872207</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,7 +4920,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4971,7 +4953,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5001,13 +4983,13 @@
         <v>2294</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5022,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -5031,13 +5013,13 @@
         <v>2294</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5034,13 @@
         <v>4956</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5073,7 +5055,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5085,10 +5067,10 @@
         <v>13</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5085,13 @@
         <v>552387</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>694</v>
@@ -5121,7 +5103,7 @@
         <v>61</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>42</v>
@@ -5133,13 +5115,13 @@
         <v>1295362</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5189,13 @@
         <v>8882</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5228,7 +5210,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -5240,10 +5222,10 @@
         <v>47</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5240,13 @@
         <v>21184</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -5273,13 +5255,13 @@
         <v>1002</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="M35" s="7">
         <v>20</v>
@@ -5291,10 +5273,10 @@
         <v>45</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5291,13 @@
         <v>35760</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -5324,13 +5306,13 @@
         <v>4123</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -5339,13 +5321,13 @@
         <v>39882</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>214</v>
+        <v>68</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5342,13 @@
         <v>3360953</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>3293</v>
@@ -5375,13 +5357,13 @@
         <v>3553185</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>219</v>
+        <v>58</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M37" s="7">
         <v>6441</v>
@@ -5390,13 +5372,13 @@
         <v>6914138</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>122</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,7 +5434,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5474,7 +5456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A83CEF6-449F-42EF-B269-98A25F259CE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D749F5DF-8D44-4BF2-BB83-6A51C28F335F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5491,7 +5473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5604,7 +5586,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5634,7 +5616,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,7 +5637,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5679,13 +5661,13 @@
         <v>1350</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5682,13 @@
         <v>4336</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5718,10 +5700,10 @@
         <v>66</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -5730,13 +5712,13 @@
         <v>7345</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5733,13 @@
         <v>413777</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
         <v>401</v>
@@ -5766,13 +5748,13 @@
         <v>392745</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>789</v>
@@ -5781,13 +5763,13 @@
         <v>806523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,7 +5843,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5876,7 +5858,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5885,13 +5867,13 @@
         <v>922</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5888,13 @@
         <v>4359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5927,7 +5909,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5939,10 +5921,10 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5939,13 @@
         <v>10130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5972,13 +5954,13 @@
         <v>3861</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -5990,10 +5972,10 @@
         <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,7 +5990,7 @@
         <v>576007</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>244</v>
@@ -6029,7 +6011,7 @@
         <v>247</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="M12" s="7">
         <v>1127</v>
@@ -6038,13 +6020,13 @@
         <v>1134767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,7 +6100,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6133,7 +6115,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6163,13 +6145,13 @@
         <v>2805</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -6178,13 +6160,13 @@
         <v>941</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -6193,10 +6175,10 @@
         <v>3746</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>252</v>
@@ -6214,13 +6196,13 @@
         <v>5226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6229,13 +6211,13 @@
         <v>823</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6244,13 +6226,13 @@
         <v>6049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6247,13 @@
         <v>661065</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>663</v>
@@ -6280,10 +6262,10 @@
         <v>659622</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>61</v>
@@ -6295,13 +6277,13 @@
         <v>1320687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,7 +6339,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6375,7 +6357,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6384,13 +6366,13 @@
         <v>1104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6399,13 +6381,13 @@
         <v>2152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,7 +6408,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6450,13 +6432,13 @@
         <v>2278</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +6453,13 @@
         <v>6774</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -6486,13 +6468,13 @@
         <v>2224</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -6501,13 +6483,13 @@
         <v>8998</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,13 +6504,13 @@
         <v>635948</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="H22" s="7">
         <v>599</v>
@@ -6537,13 +6519,13 @@
         <v>645749</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>1173</v>
@@ -6552,13 +6534,13 @@
         <v>1281697</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,7 +6596,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6626,13 +6608,13 @@
         <v>1095</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6647,7 +6629,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6656,13 +6638,13 @@
         <v>1095</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6659,13 @@
         <v>1108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6698,7 +6680,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6707,13 +6689,13 @@
         <v>1108</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,13 +6710,13 @@
         <v>6398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -6743,13 +6725,13 @@
         <v>2928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -6758,13 +6740,13 @@
         <v>9327</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,13 +6761,13 @@
         <v>469316</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="H27" s="7">
         <v>431</v>
@@ -6794,10 +6776,10 @@
         <v>493921</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>61</v>
@@ -6809,13 +6791,13 @@
         <v>963237</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,7 +6853,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6889,7 +6871,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6904,7 +6886,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6940,7 +6922,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6955,7 +6937,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6964,13 +6946,13 @@
         <v>960</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,7 +6973,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7000,13 +6982,13 @@
         <v>1074</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>283</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -7021,7 +7003,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>284</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,10 +7018,10 @@
         <v>589456</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>61</v>
@@ -7051,10 +7033,10 @@
         <v>776857</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>61</v>
@@ -7066,13 +7048,13 @@
         <v>1366313</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7122,13 @@
         <v>2143</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7155,13 +7137,13 @@
         <v>2026</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -7170,13 +7152,13 @@
         <v>4170</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,10 +7176,10 @@
         <v>13</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7206,13 +7188,13 @@
         <v>941</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
@@ -7221,13 +7203,13 @@
         <v>13802</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,13 +7224,13 @@
         <v>33776</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>288</v>
+        <v>31</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -7260,10 +7242,10 @@
         <v>14</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
@@ -7272,13 +7254,13 @@
         <v>47696</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>289</v>
+        <v>119</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>153</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7293,13 +7275,13 @@
         <v>3345570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H37" s="7">
         <v>3322</v>
@@ -7308,13 +7290,13 @@
         <v>3527654</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="M37" s="7">
         <v>6509</v>
@@ -7323,13 +7305,13 @@
         <v>6873224</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,7 +7367,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -7407,7 +7389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAD80-6F12-4C73-819F-0FC13A5F23B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8937B88-F2AD-489C-991E-4D4788CE1D32}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7424,7 +7406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7537,7 +7519,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -7546,13 +7528,13 @@
         <v>4569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7561,13 +7543,13 @@
         <v>4569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,7 +7570,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7603,7 +7585,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7618,7 +7600,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,13 +7615,13 @@
         <v>160</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7654,7 +7636,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7663,13 +7645,13 @@
         <v>160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>52</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,10 +7666,10 @@
         <v>161056</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>61</v>
@@ -7699,13 +7681,13 @@
         <v>106307</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M7" s="7">
         <v>132</v>
@@ -7714,13 +7696,13 @@
         <v>267362</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7794,7 +7776,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7803,13 +7785,13 @@
         <v>938</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7818,13 +7800,13 @@
         <v>938</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,13 +7821,13 @@
         <v>1244</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7860,7 +7842,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -7869,13 +7851,13 @@
         <v>1244</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7890,13 +7872,13 @@
         <v>4684</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7911,7 +7893,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -7920,13 +7902,13 @@
         <v>4684</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>308</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7941,13 +7923,13 @@
         <v>221464</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>129</v>
+        <v>312</v>
       </c>
       <c r="H12" s="7">
         <v>139</v>
@@ -7956,10 +7938,10 @@
         <v>149217</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>61</v>
@@ -7971,13 +7953,13 @@
         <v>370681</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8045,13 +8027,13 @@
         <v>1168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -8060,13 +8042,13 @@
         <v>1353</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8075,13 +8057,13 @@
         <v>2521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,13 +8078,13 @@
         <v>2548</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8117,7 +8099,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -8126,13 +8108,13 @@
         <v>3356</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8147,13 +8129,13 @@
         <v>160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8168,7 +8150,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -8177,13 +8159,13 @@
         <v>160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,13 +8180,13 @@
         <v>283564</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>225</v>
@@ -8213,13 +8195,13 @@
         <v>157185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>489</v>
@@ -8228,13 +8210,13 @@
         <v>440749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8290,7 +8272,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8302,13 +8284,13 @@
         <v>2244</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>209</v>
+        <v>327</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8323,7 +8305,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -8332,13 +8314,13 @@
         <v>2244</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8353,13 +8335,13 @@
         <v>2154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8368,13 +8350,13 @@
         <v>887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -8383,13 +8365,13 @@
         <v>3041</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8404,13 +8386,13 @@
         <v>2038</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -8419,13 +8401,13 @@
         <v>1493</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -8434,13 +8416,13 @@
         <v>3530</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,13 +8437,13 @@
         <v>343073</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -8470,10 +8452,10 @@
         <v>197304</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>58</v>
@@ -8485,13 +8467,13 @@
         <v>540377</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8547,7 +8529,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8559,13 +8541,13 @@
         <v>5223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>346</v>
+        <v>234</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>283</v>
+        <v>118</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -8574,13 +8556,13 @@
         <v>2475</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -8589,13 +8571,13 @@
         <v>7698</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>347</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>189</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8610,13 +8592,13 @@
         <v>3512</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8631,7 +8613,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -8640,13 +8622,13 @@
         <v>4191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>50</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8661,13 +8643,13 @@
         <v>3651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -8676,13 +8658,13 @@
         <v>696</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -8691,13 +8673,13 @@
         <v>4348</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8712,13 +8694,13 @@
         <v>265881</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H27" s="7">
         <v>234</v>
@@ -8727,13 +8709,13 @@
         <v>141113</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>524</v>
@@ -8742,13 +8724,13 @@
         <v>406995</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8804,7 +8786,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8816,13 +8798,13 @@
         <v>3880</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -8831,13 +8813,13 @@
         <v>903</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -8846,13 +8828,13 @@
         <v>4783</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>346</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8867,13 +8849,13 @@
         <v>776</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8888,7 +8870,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>254</v>
+        <v>367</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -8903,7 +8885,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8918,10 +8900,10 @@
         <v>2097</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>368</v>
@@ -8939,7 +8921,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>254</v>
+        <v>367</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -8948,13 +8930,13 @@
         <v>2097</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8972,10 +8954,10 @@
         <v>369</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>370</v>
+        <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="H32" s="7">
         <v>200</v>
@@ -8984,10 +8966,10 @@
         <v>220180</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>323</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>61</v>
@@ -8999,13 +8981,13 @@
         <v>521055</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>372</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9073,13 +9055,13 @@
         <v>12515</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
@@ -9088,13 +9070,13 @@
         <v>10238</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M34" s="7">
         <v>28</v>
@@ -9103,13 +9085,13 @@
         <v>22754</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>199</v>
+        <v>347</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9124,13 +9106,13 @@
         <v>10234</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>111</v>
+        <v>373</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -9139,13 +9121,13 @@
         <v>2374</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -9154,13 +9136,13 @@
         <v>12608</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9175,13 +9157,13 @@
         <v>12789</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9190,13 +9172,13 @@
         <v>2189</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -9205,13 +9187,13 @@
         <v>14978</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9226,13 +9208,13 @@
         <v>1575913</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>379</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>381</v>
+        <v>60</v>
       </c>
       <c r="H37" s="7">
         <v>1174</v>
@@ -9241,13 +9223,13 @@
         <v>971305</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>345</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>2712</v>
@@ -9256,13 +9238,13 @@
         <v>2547219</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>385</v>
+        <v>310</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>207</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9318,7 +9300,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Cage-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7327535-9EC3-46E9-95AA-BD3F2C83B6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C712B883-3364-497F-A92F-B88E714C8AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{233C72B4-D4E0-427C-8573-BF3C32386F4D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CC0E48B9-439B-4AC5-87BF-107F76F68C03}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="405">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Dependencia alcohólica</t>
@@ -170,7 +170,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -236,7 +236,7 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,76%</t>
@@ -296,7 +296,7 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -323,7 +323,7 @@
     <t>99,43%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,94%</t>
@@ -389,796 +389,871 @@
     <t>97,93%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1665,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C38A031-26A7-4589-9D85-5A9704671AA8}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1595CD7-E95F-45DF-9ABF-61B9F824A852}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2993,49 +3068,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1007</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,7 +3131,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3071,7 +3146,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -3086,7 +3161,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,7 +3182,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3122,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3137,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,49 +3221,49 @@
         <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>522</v>
+        <v>303</v>
       </c>
       <c r="D32" s="7">
-        <v>501459</v>
+        <v>292583</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H32" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I32" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="M32" s="7">
-        <v>1183</v>
+        <v>674</v>
       </c>
       <c r="N32" s="7">
-        <v>1178301</v>
+        <v>635517</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,10 +3272,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D33" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>42</v>
@@ -3212,10 +3287,10 @@
         <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I33" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>42</v>
@@ -3227,10 +3302,10 @@
         <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N33" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>42</v>
@@ -3244,55 +3319,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>5607</v>
+        <v>1007</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="7">
         <v>1</v>
       </c>
-      <c r="I34" s="7">
-        <v>1018</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M34" s="7">
-        <v>7</v>
-      </c>
       <c r="N34" s="7">
-        <v>6625</v>
+        <v>1007</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,49 +3376,49 @@
         <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>6837</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M35" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>8843</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,49 +3427,49 @@
         <v>24</v>
       </c>
       <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D36" s="7">
-        <v>13194</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="7">
-        <v>5</v>
-      </c>
-      <c r="I36" s="7">
-        <v>6265</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M36" s="7">
-        <v>18</v>
-      </c>
-      <c r="N36" s="7">
-        <v>19459</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,49 +3478,49 @@
         <v>32</v>
       </c>
       <c r="C37" s="7">
-        <v>3189</v>
+        <v>219</v>
       </c>
       <c r="D37" s="7">
-        <v>3250905</v>
+        <v>208876</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="H37" s="7">
-        <v>3289</v>
+        <v>290</v>
       </c>
       <c r="I37" s="7">
-        <v>3369909</v>
+        <v>333908</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="M37" s="7">
-        <v>6478</v>
+        <v>509</v>
       </c>
       <c r="N37" s="7">
-        <v>6620813</v>
+        <v>542784</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,63 +3529,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>220</v>
+      </c>
+      <c r="D38" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="7">
+        <v>290</v>
+      </c>
+      <c r="I38" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="7">
+        <v>510</v>
+      </c>
+      <c r="N38" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7">
+        <v>5607</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1018</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M39" s="7">
+        <v>7</v>
+      </c>
+      <c r="N39" s="7">
+        <v>6625</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7">
+        <v>6837</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>2006</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="7">
+        <v>8</v>
+      </c>
+      <c r="N40" s="7">
+        <v>8843</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="7">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7">
+        <v>13194</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="7">
+        <v>5</v>
+      </c>
+      <c r="I41" s="7">
+        <v>6265</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M41" s="7">
+        <v>18</v>
+      </c>
+      <c r="N41" s="7">
+        <v>19459</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="7">
+        <v>3189</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3250904</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="7">
+        <v>3289</v>
+      </c>
+      <c r="I42" s="7">
+        <v>3369908</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M42" s="7">
+        <v>6478</v>
+      </c>
+      <c r="N42" s="7">
+        <v>6620814</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3214</v>
       </c>
-      <c r="D38" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="7">
         <v>3297</v>
       </c>
-      <c r="I38" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="7">
         <v>6511</v>
       </c>
-      <c r="N38" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>143</v>
+      <c r="N43" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3523,8 +3856,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85CB75-0B94-4507-9C72-F443443AEBF6}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2226A890-2F08-4F92-B610-844F18380C6C}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3540,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3653,7 +3986,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3668,7 +4001,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3683,7 +4016,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,28 +4031,28 @@
         <v>5404</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3728,7 +4061,7 @@
         <v>5404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>107</v>
@@ -3749,13 +4082,13 @@
         <v>8919</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -3764,13 +4097,13 @@
         <v>4123</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3779,13 +4112,13 @@
         <v>13041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +4133,13 @@
         <v>439823</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>417</v>
@@ -3818,10 +4151,10 @@
         <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>848</v>
@@ -3830,13 +4163,13 @@
         <v>865931</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,7 +4243,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3925,7 +4258,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3955,13 +4288,13 @@
         <v>6358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3976,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3985,13 +4318,13 @@
         <v>6358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4339,13 @@
         <v>6305</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4027,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4036,10 +4369,10 @@
         <v>6305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>50</v>
@@ -4057,13 +4390,13 @@
         <v>672666</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>571</v>
@@ -4087,13 +4420,13 @@
         <v>1282921</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4494,13 @@
         <v>6070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4191,10 +4524,10 @@
         <v>6070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>50</v>
@@ -4218,7 +4551,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4248,7 +4581,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4596,13 @@
         <v>5106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4293,13 +4626,13 @@
         <v>5106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4647,13 @@
         <v>668711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>667</v>
@@ -4332,7 +4665,7 @@
         <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>42</v>
@@ -4344,13 +4677,13 @@
         <v>1379560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,7 +4751,7 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
@@ -4439,7 +4772,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4469,13 +4802,13 @@
         <v>2115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4490,7 +4823,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4499,13 +4832,13 @@
         <v>2115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4853,13 @@
         <v>9491</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4541,7 +4874,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -4550,13 +4883,13 @@
         <v>9491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,10 +4904,10 @@
         <v>601957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>39</v>
@@ -4589,7 +4922,7 @@
         <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>42</v>
@@ -4601,13 +4934,13 @@
         <v>1218156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,7 +5014,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4726,13 +5059,13 @@
         <v>3038</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4741,13 +5074,13 @@
         <v>1002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -4762,7 +5095,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,7 +5116,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4813,7 +5146,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +5161,13 @@
         <v>425409</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="H27" s="7">
         <v>405</v>
@@ -4843,10 +5176,10 @@
         <v>446798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>61</v>
@@ -4861,7 +5194,7 @@
         <v>93</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>38</v>
@@ -4938,7 +5271,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4953,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4968,7 +5301,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,19 +5310,19 @@
         <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>2294</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5004,22 +5337,22 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>2294</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5367,13 @@
         <v>4956</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5055,7 +5388,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5064,13 +5397,13 @@
         <v>4956</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,49 +5412,49 @@
         <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>499</v>
+        <v>278</v>
       </c>
       <c r="D32" s="7">
-        <v>552387</v>
+        <v>304830</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I32" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="M32" s="7">
-        <v>1193</v>
+        <v>622</v>
       </c>
       <c r="N32" s="7">
-        <v>1295362</v>
+        <v>658826</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D33" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>42</v>
@@ -5145,10 +5478,10 @@
         <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I33" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>42</v>
@@ -5160,10 +5493,10 @@
         <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N33" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>42</v>
@@ -5177,25 +5510,25 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>8882</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5210,22 +5543,22 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="M34" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>8882</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,49 +5567,49 @@
         <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>21184</v>
+        <v>2294</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M35" s="7">
         <v>1</v>
       </c>
-      <c r="I35" s="7">
-        <v>1002</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M35" s="7">
-        <v>20</v>
-      </c>
       <c r="N35" s="7">
-        <v>22186</v>
+        <v>2294</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,49 +5618,49 @@
         <v>24</v>
       </c>
       <c r="C36" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>35760</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="H36" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>4123</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="M36" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>39882</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,49 +5669,49 @@
         <v>32</v>
       </c>
       <c r="C37" s="7">
-        <v>3148</v>
+        <v>221</v>
       </c>
       <c r="D37" s="7">
-        <v>3360953</v>
+        <v>247557</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="H37" s="7">
-        <v>3293</v>
+        <v>350</v>
       </c>
       <c r="I37" s="7">
-        <v>3553185</v>
+        <v>388979</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="M37" s="7">
-        <v>6441</v>
+        <v>571</v>
       </c>
       <c r="N37" s="7">
-        <v>6914138</v>
+        <v>636536</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>228</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,63 +5720,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>222</v>
+      </c>
+      <c r="D38" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="7">
+        <v>350</v>
+      </c>
+      <c r="I38" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="7">
+        <v>572</v>
+      </c>
+      <c r="N38" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>9</v>
+      </c>
+      <c r="D39" s="7">
+        <v>8882</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M39" s="7">
+        <v>9</v>
+      </c>
+      <c r="N39" s="7">
+        <v>8882</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>19</v>
+      </c>
+      <c r="D40" s="7">
+        <v>21184</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1002</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40" s="7">
+        <v>20</v>
+      </c>
+      <c r="N40" s="7">
+        <v>22186</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="7">
+        <v>33</v>
+      </c>
+      <c r="D41" s="7">
+        <v>35760</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H41" s="7">
+        <v>4</v>
+      </c>
+      <c r="I41" s="7">
+        <v>4123</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M41" s="7">
+        <v>37</v>
+      </c>
+      <c r="N41" s="7">
+        <v>39882</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="7">
+        <v>3148</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3360953</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H42" s="7">
+        <v>3293</v>
+      </c>
+      <c r="I42" s="7">
+        <v>3553185</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M42" s="7">
+        <v>6441</v>
+      </c>
+      <c r="N42" s="7">
+        <v>6914138</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3209</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>3426779</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="7">
         <v>3298</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>3558309</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="7">
         <v>6507</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>6985088</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>143</v>
+      <c r="O43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5456,8 +6047,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D749F5DF-8D44-4BF2-BB83-6A51C28F335F}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A431B9-6976-4A91-ABFD-FA9056AA4619}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5473,7 +6064,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5586,7 +6177,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5637,7 +6228,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5661,13 +6252,13 @@
         <v>1350</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +6273,13 @@
         <v>4336</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5703,7 +6294,7 @@
         <v>96</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -5715,10 +6306,10 @@
         <v>109</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +6324,13 @@
         <v>413777</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>401</v>
@@ -5751,10 +6342,10 @@
         <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>789</v>
@@ -5763,13 +6354,13 @@
         <v>806523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,7 +6434,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5867,7 +6458,7 @@
         <v>922</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
@@ -5891,10 +6482,10 @@
         <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5924,7 +6515,7 @@
         <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +6530,13 @@
         <v>10130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5957,10 +6548,10 @@
         <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -5969,13 +6560,13 @@
         <v>13991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +6581,13 @@
         <v>576007</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>574</v>
@@ -6005,13 +6596,13 @@
         <v>558760</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>1127</v>
@@ -6020,10 +6611,10 @@
         <v>1134767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>114</v>
@@ -6145,7 +6736,7 @@
         <v>2805</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>69</v>
@@ -6166,7 +6757,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -6175,13 +6766,13 @@
         <v>3746</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6787,13 @@
         <v>5226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6217,7 +6808,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6226,7 +6817,7 @@
         <v>6049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
@@ -6247,10 +6838,10 @@
         <v>661065</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>93</v>
@@ -6262,10 +6853,10 @@
         <v>659622</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>61</v>
@@ -6280,10 +6871,10 @@
         <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,7 +6948,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6366,13 +6957,13 @@
         <v>1104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6381,13 +6972,13 @@
         <v>2152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,7 +6999,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6432,13 +7023,13 @@
         <v>2278</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +7044,13 @@
         <v>6774</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -6468,13 +7059,13 @@
         <v>2224</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -6489,7 +7080,7 @@
         <v>71</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,10 +7095,10 @@
         <v>635948</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>77</v>
@@ -6519,13 +7110,13 @@
         <v>645749</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>1173</v>
@@ -6537,10 +7128,10 @@
         <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,7 +7205,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6629,7 +7220,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6644,7 +7235,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,7 +7256,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6680,7 +7271,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6695,7 +7286,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,7 +7307,7 @@
         <v>98</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -6725,13 +7316,13 @@
         <v>2928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -6740,13 +7331,13 @@
         <v>9327</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +7352,13 @@
         <v>469316</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H27" s="7">
         <v>431</v>
@@ -6776,10 +7367,10 @@
         <v>493921</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>61</v>
@@ -6791,13 +7382,13 @@
         <v>963237</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>115</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,7 +7462,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6886,7 +7477,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6901,7 +7492,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +7507,13 @@
         <v>960</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>278</v>
+        <v>106</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6937,7 +7528,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6946,13 +7537,13 @@
         <v>960</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,19 +7552,19 @@
         <v>24</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6982,19 +7573,19 @@
         <v>1074</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>288</v>
       </c>
       <c r="M31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>1985</v>
+        <v>1074</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>46</v>
@@ -7003,7 +7594,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,49 +7603,49 @@
         <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D32" s="7">
-        <v>589456</v>
+        <v>333370</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H32" s="7">
-        <v>654</v>
+        <v>353</v>
       </c>
       <c r="I32" s="7">
-        <v>776857</v>
+        <v>376688</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M32" s="7">
-        <v>1279</v>
+        <v>677</v>
       </c>
       <c r="N32" s="7">
-        <v>1366313</v>
+        <v>710058</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,10 +7654,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D33" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>42</v>
@@ -7078,10 +7669,10 @@
         <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I33" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>42</v>
@@ -7093,10 +7684,10 @@
         <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N33" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>42</v>
@@ -7110,55 +7701,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>2143</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>147</v>
+        <v>293</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>4170</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,49 +7758,49 @@
         <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>12861</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>941</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>88</v>
+        <v>293</v>
       </c>
       <c r="M35" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>13802</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,49 +7809,49 @@
         <v>24</v>
       </c>
       <c r="C36" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>33776</v>
+        <v>912</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="H36" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>13921</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="M36" s="7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>47696</v>
+        <v>912</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,49 +7860,49 @@
         <v>32</v>
       </c>
       <c r="C37" s="7">
-        <v>3187</v>
+        <v>301</v>
       </c>
       <c r="D37" s="7">
-        <v>3345570</v>
+        <v>256086</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>286</v>
+        <v>61</v>
       </c>
       <c r="H37" s="7">
-        <v>3322</v>
+        <v>301</v>
       </c>
       <c r="I37" s="7">
-        <v>3527654</v>
+        <v>400169</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="M37" s="7">
-        <v>6509</v>
+        <v>602</v>
       </c>
       <c r="N37" s="7">
-        <v>6873224</v>
+        <v>656255</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,63 +7911,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>302</v>
+      </c>
+      <c r="D38" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="7">
+        <v>301</v>
+      </c>
+      <c r="I38" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="7">
+        <v>603</v>
+      </c>
+      <c r="N38" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2143</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2026</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M39" s="7">
+        <v>4</v>
+      </c>
+      <c r="N39" s="7">
+        <v>4170</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>12</v>
+      </c>
+      <c r="D40" s="7">
+        <v>12861</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
+        <v>941</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M40" s="7">
+        <v>13</v>
+      </c>
+      <c r="N40" s="7">
+        <v>13802</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="7">
+        <v>30</v>
+      </c>
+      <c r="D41" s="7">
+        <v>33776</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="7">
+        <v>13</v>
+      </c>
+      <c r="I41" s="7">
+        <v>13921</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M41" s="7">
+        <v>43</v>
+      </c>
+      <c r="N41" s="7">
+        <v>47696</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="7">
+        <v>3187</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3345570</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H42" s="7">
+        <v>3322</v>
+      </c>
+      <c r="I42" s="7">
+        <v>3527654</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M42" s="7">
+        <v>6509</v>
+      </c>
+      <c r="N42" s="7">
+        <v>6873224</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3231</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>3394350</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="7">
         <v>3338</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>3544542</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="7">
         <v>6569</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>6938892</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>143</v>
+      <c r="O43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7389,8 +8238,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8937B88-F2AD-489C-991E-4D4788CE1D32}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92664C73-79FD-447C-BAB2-196AD79CE757}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7406,7 +8255,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7519,37 +8368,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>4569</v>
+        <v>4001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>4569</v>
+        <v>4001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,7 +8419,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7585,7 +8434,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7612,16 +8461,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7636,22 +8485,22 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>277</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,13 +8512,13 @@
         <v>69</v>
       </c>
       <c r="D7" s="7">
-        <v>161056</v>
+        <v>169738</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>61</v>
@@ -7678,31 +8527,31 @@
         <v>63</v>
       </c>
       <c r="I7" s="7">
-        <v>106307</v>
+        <v>95081</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="M7" s="7">
         <v>132</v>
       </c>
       <c r="N7" s="7">
-        <v>267362</v>
+        <v>264819</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,7 +8563,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="7">
-        <v>161216</v>
+        <v>169903</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -7729,7 +8578,7 @@
         <v>66</v>
       </c>
       <c r="I8" s="7">
-        <v>110876</v>
+        <v>99082</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -7744,7 +8593,7 @@
         <v>136</v>
       </c>
       <c r="N8" s="7">
-        <v>272091</v>
+        <v>268985</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -7776,37 +8625,37 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>938</v>
+        <v>857</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>938</v>
+        <v>857</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,16 +8667,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1244</v>
+        <v>1558</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7842,22 +8691,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1244</v>
+        <v>1558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,16 +8718,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>4684</v>
+        <v>5738</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7893,22 +8742,22 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>4684</v>
+        <v>5738</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,28 +8769,28 @@
         <v>150</v>
       </c>
       <c r="D12" s="7">
-        <v>221464</v>
+        <v>222840</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>139</v>
       </c>
       <c r="I12" s="7">
-        <v>149217</v>
+        <v>139855</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>61</v>
@@ -7950,16 +8799,16 @@
         <v>289</v>
       </c>
       <c r="N12" s="7">
-        <v>370681</v>
+        <v>362695</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,7 +8820,7 @@
         <v>155</v>
       </c>
       <c r="D13" s="7">
-        <v>227391</v>
+        <v>230135</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>42</v>
@@ -7986,7 +8835,7 @@
         <v>140</v>
       </c>
       <c r="I13" s="7">
-        <v>150155</v>
+        <v>140712</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>42</v>
@@ -8001,7 +8850,7 @@
         <v>295</v>
       </c>
       <c r="N13" s="7">
-        <v>377546</v>
+        <v>370847</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>42</v>
@@ -8024,46 +8873,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>318</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1353</v>
+        <v>1253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>2521</v>
+        <v>2410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,46 +8924,46 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>2548</v>
+        <v>2329</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>118</v>
+        <v>333</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>808</v>
+        <v>699</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
       </c>
       <c r="N15" s="7">
-        <v>3356</v>
+        <v>3028</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,16 +8975,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8150,22 +8999,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,46 +9026,46 @@
         <v>264</v>
       </c>
       <c r="D17" s="7">
-        <v>283564</v>
+        <v>277509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>225</v>
       </c>
       <c r="I17" s="7">
-        <v>157185</v>
+        <v>148138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>489</v>
       </c>
       <c r="N17" s="7">
-        <v>440749</v>
+        <v>425647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,7 +9077,7 @@
         <v>269</v>
       </c>
       <c r="D18" s="7">
-        <v>287440</v>
+        <v>281158</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>42</v>
@@ -8243,7 +9092,7 @@
         <v>228</v>
       </c>
       <c r="I18" s="7">
-        <v>159346</v>
+        <v>150090</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>42</v>
@@ -8258,7 +9107,7 @@
         <v>497</v>
       </c>
       <c r="N18" s="7">
-        <v>446786</v>
+        <v>431248</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>42</v>
@@ -8281,16 +9130,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>2244</v>
+        <v>2038</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8305,22 +9154,22 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>2244</v>
+        <v>2038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>31</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8332,46 +9181,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>2154</v>
+        <v>2049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>887</v>
+        <v>826</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>26</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>3041</v>
+        <v>2875</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,46 +9232,46 @@
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>2038</v>
+        <v>2015</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>1493</v>
+        <v>1325</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>3530</v>
+        <v>3340</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>335</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8434,46 +9283,46 @@
         <v>324</v>
       </c>
       <c r="D22" s="7">
-        <v>343073</v>
+        <v>334059</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
       </c>
       <c r="I22" s="7">
-        <v>197304</v>
+        <v>185368</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>637</v>
       </c>
       <c r="N22" s="7">
-        <v>540377</v>
+        <v>519427</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8485,7 +9334,7 @@
         <v>331</v>
       </c>
       <c r="D23" s="7">
-        <v>349509</v>
+        <v>340160</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>42</v>
@@ -8500,7 +9349,7 @@
         <v>317</v>
       </c>
       <c r="I23" s="7">
-        <v>199683</v>
+        <v>187519</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>42</v>
@@ -8515,7 +9364,7 @@
         <v>648</v>
       </c>
       <c r="N23" s="7">
-        <v>549192</v>
+        <v>527679</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>42</v>
@@ -8538,46 +9387,46 @@
         <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>5223</v>
+        <v>4987</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>234</v>
+        <v>351</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>2475</v>
+        <v>2287</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>344</v>
+        <v>202</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
       </c>
       <c r="N24" s="7">
-        <v>7698</v>
+        <v>7273</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>347</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8589,22 +9438,22 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3512</v>
+        <v>3369</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>679</v>
+        <v>628</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>17</v>
@@ -8613,22 +9462,22 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>4191</v>
+        <v>3997</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8640,46 +9489,46 @@
         <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>3651</v>
+        <v>3360</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>696</v>
+        <v>629</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>4348</v>
+        <v>3989</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8691,46 +9540,46 @@
         <v>290</v>
       </c>
       <c r="D27" s="7">
-        <v>265881</v>
+        <v>251136</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H27" s="7">
         <v>234</v>
       </c>
       <c r="I27" s="7">
-        <v>141113</v>
+        <v>131213</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="M27" s="7">
         <v>524</v>
       </c>
       <c r="N27" s="7">
-        <v>406995</v>
+        <v>382348</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8742,7 +9591,7 @@
         <v>304</v>
       </c>
       <c r="D28" s="7">
-        <v>278268</v>
+        <v>262852</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>42</v>
@@ -8757,7 +9606,7 @@
         <v>240</v>
       </c>
       <c r="I28" s="7">
-        <v>144964</v>
+        <v>134757</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>42</v>
@@ -8772,7 +9621,7 @@
         <v>544</v>
       </c>
       <c r="N28" s="7">
-        <v>423232</v>
+        <v>397608</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>42</v>
@@ -8792,49 +9641,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>3880</v>
+        <v>2359</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>349</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>903</v>
+        <v>450</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M29" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>4783</v>
+        <v>2809</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8843,19 +9692,19 @@
         <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>776</v>
+        <v>161</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8870,22 +9719,22 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="M30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>776</v>
+        <v>161</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8894,19 +9743,19 @@
         <v>24</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>2097</v>
+        <v>1476</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8921,22 +9770,22 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="M31" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>2097</v>
+        <v>1476</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8945,49 +9794,49 @@
         <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="D32" s="7">
-        <v>300876</v>
+        <v>185299</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>377</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>275</v>
+        <v>378</v>
       </c>
       <c r="H32" s="7">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="I32" s="7">
-        <v>220180</v>
+        <v>278356</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M32" s="7">
-        <v>641</v>
+        <v>428</v>
       </c>
       <c r="N32" s="7">
-        <v>521055</v>
+        <v>463654</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8996,10 +9845,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>452</v>
+        <v>287</v>
       </c>
       <c r="D33" s="7">
-        <v>307629</v>
+        <v>189295</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>42</v>
@@ -9011,10 +9860,10 @@
         <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="I33" s="7">
-        <v>221083</v>
+        <v>278806</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>42</v>
@@ -9026,10 +9875,10 @@
         <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>654</v>
+        <v>436</v>
       </c>
       <c r="N33" s="7">
-        <v>528711</v>
+        <v>468100</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>42</v>
@@ -9043,55 +9892,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>12515</v>
+        <v>1252</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="H34" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>10238</v>
+        <v>404</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>373</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="M34" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>22754</v>
+        <v>1656</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9100,49 +9949,49 @@
         <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>10234</v>
+        <v>564</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>2374</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>387</v>
       </c>
       <c r="M35" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>12608</v>
+        <v>564</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>25</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9151,49 +10000,49 @@
         <v>24</v>
       </c>
       <c r="C36" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>12789</v>
+        <v>567</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>374</v>
+        <v>68</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="H36" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>2189</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="M36" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>14978</v>
+        <v>567</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>168</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9202,49 +10051,49 @@
         <v>32</v>
       </c>
       <c r="C37" s="7">
-        <v>1538</v>
+        <v>161</v>
       </c>
       <c r="D37" s="7">
-        <v>1575913</v>
+        <v>97652</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>391</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="H37" s="7">
-        <v>1174</v>
+        <v>52</v>
       </c>
       <c r="I37" s="7">
-        <v>971305</v>
+        <v>26192</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="M37" s="7">
-        <v>2712</v>
+        <v>213</v>
       </c>
       <c r="N37" s="7">
-        <v>2547219</v>
+        <v>123844</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>377</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9253,63 +10102,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>165</v>
+      </c>
+      <c r="D38" s="7">
+        <v>100035</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="7">
+        <v>53</v>
+      </c>
+      <c r="I38" s="7">
+        <v>26596</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="7">
+        <v>218</v>
+      </c>
+      <c r="N38" s="7">
+        <v>126631</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>16</v>
+      </c>
+      <c r="D39" s="7">
+        <v>11792</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="7">
+        <v>12</v>
+      </c>
+      <c r="I39" s="7">
+        <v>9252</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M39" s="7">
+        <v>28</v>
+      </c>
+      <c r="N39" s="7">
+        <v>21044</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>12</v>
+      </c>
+      <c r="D40" s="7">
+        <v>10030</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="7">
+        <v>4</v>
+      </c>
+      <c r="I40" s="7">
+        <v>2153</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M40" s="7">
+        <v>16</v>
+      </c>
+      <c r="N40" s="7">
+        <v>12183</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="7">
+        <v>15</v>
+      </c>
+      <c r="D41" s="7">
+        <v>13484</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H41" s="7">
+        <v>3</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1954</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M41" s="7">
+        <v>18</v>
+      </c>
+      <c r="N41" s="7">
+        <v>15437</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1538</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1538231</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1174</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1004202</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2712</v>
+      </c>
+      <c r="N42" s="7">
+        <v>2542434</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1581</v>
       </c>
-      <c r="D38" s="7">
-        <v>1611452</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1573537</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="7">
         <v>1193</v>
       </c>
-      <c r="I38" s="7">
-        <v>986107</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1017561</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="7">
         <v>2774</v>
       </c>
-      <c r="N38" s="7">
-        <v>2597559</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>143</v>
+      <c r="N43" s="7">
+        <v>2591098</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
